--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678106.3639996283</v>
+        <v>602233.6995947008</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.3829109173</v>
+        <v>431491.3829109175</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7735573.605375752</v>
+        <v>7735573.605375751</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U2" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>70.69572208711297</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>121.1730338583261</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>188.6470431083759</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>4.212569466204348</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.9272112248127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>155.1939893547395</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>332.1561370229923</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863033</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>163.5434392080944</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>83.106603567229</v>
+        <v>190.5142134557409</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.623590991012</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>83.46755290535195</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>123.528901491185</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>295.4861068837396</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>306.1982975721335</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>7.852264971889745</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>20.79311565740646</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>118.1968891582761</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>23.84365548466931</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>22.14844914098962</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>331.0869178506238</v>
       </c>
       <c r="I17" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.42076593623693</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
-        <v>143.6741107319887</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,7 +1940,7 @@
         <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>57.35404650333117</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5939144075617</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
         <v>225.9125518617455</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>118.1968891582761</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>123.7529098367822</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>134.9001242962377</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5105486125224</v>
+        <v>49.17327152498928</v>
       </c>
       <c r="U20" t="n">
         <v>251.2801305603485</v>
@@ -2162,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>109.8003696882284</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>149.763954407334</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>157.9142565039485</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>123.7529098367822</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>348.6952998295441</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>8.234680619387285</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>89.06613335611762</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>150.2715420580709</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>13.93123280013624</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>75.56246583637109</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017899</v>
+        <v>78.64571997422897</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2744854707428</v>
+        <v>166.939538343968</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.2957343884577</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>20.24586684424215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.105511917133617</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>179.9801496149887</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.39957225199133</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.055538822593</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>342.1712295456342</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>26.94389492651033</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>36.39183767369501</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>104.8405888295613</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>213.4267574453117</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69096340022583</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69096340022583</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69096340022583</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>193.7341723913397</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>193.7341723913397</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>193.7341723913397</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.7341723913397</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>391.2152311558108</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
         <v>262.7299197543128</v>
@@ -4789,7 +4789,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="W8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="X8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="Y8" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>858.6325053905882</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>630.4088871269773</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>423.5598307498047</v>
+        <v>793.9109299975626</v>
       </c>
       <c r="C11" t="n">
-        <v>423.5598307498047</v>
+        <v>793.9109299975626</v>
       </c>
       <c r="D11" t="n">
-        <v>423.5598307498047</v>
+        <v>637.1493245887348</v>
       </c>
       <c r="E11" t="n">
-        <v>37.77157815156053</v>
+        <v>637.1493245887348</v>
       </c>
       <c r="F11" t="n">
-        <v>37.77157815156053</v>
+        <v>637.1493245887348</v>
       </c>
       <c r="G11" t="n">
-        <v>37.77157815156053</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="H11" t="n">
-        <v>37.77157815156053</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="I11" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J11" t="n">
         <v>94.76073252434981</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625696</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559819</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859934</v>
+        <v>968.3017108859927</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.836271911618</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O11" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P11" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V11" t="n">
-        <v>1888.578907578026</v>
+        <v>1557.516020234454</v>
       </c>
       <c r="W11" t="n">
-        <v>1535.810252307912</v>
+        <v>1557.516020234454</v>
       </c>
       <c r="X11" t="n">
-        <v>1200.299002789738</v>
+        <v>1184.050261973374</v>
       </c>
       <c r="Y11" t="n">
-        <v>810.1596708139266</v>
+        <v>793.9109299975626</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.3727310886351</v>
+        <v>492.4780007913823</v>
       </c>
       <c r="C12" t="n">
-        <v>814.9197018075081</v>
+        <v>492.4780007913823</v>
       </c>
       <c r="D12" t="n">
-        <v>665.9852921462568</v>
+        <v>343.5435911301311</v>
       </c>
       <c r="E12" t="n">
-        <v>506.7478371408014</v>
+        <v>184.3061361246755</v>
       </c>
       <c r="F12" t="n">
-        <v>360.2132791676863</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9250995404893</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8309903954056</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I12" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J12" t="n">
-        <v>37.77157815156053</v>
+        <v>78.02054839819856</v>
       </c>
       <c r="K12" t="n">
-        <v>233.184322179535</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L12" t="n">
-        <v>557.3452682424039</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M12" t="n">
-        <v>987.6050242540248</v>
+        <v>1027.853994500663</v>
       </c>
       <c r="N12" t="n">
-        <v>1146.343769973334</v>
+        <v>1485.208459363507</v>
       </c>
       <c r="O12" t="n">
-        <v>1498.318075624454</v>
+        <v>1837.182765014626</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.805418834997</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q12" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R12" t="n">
-        <v>1814.892245700622</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S12" t="n">
-        <v>1649.696852561133</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T12" t="n">
-        <v>1449.294431082979</v>
+        <v>1522.981092960382</v>
       </c>
       <c r="U12" t="n">
-        <v>1449.294431082979</v>
+        <v>1522.981092960382</v>
       </c>
       <c r="V12" t="n">
-        <v>1365.348366873657</v>
+        <v>1330.542493510139</v>
       </c>
       <c r="W12" t="n">
-        <v>1365.348366873657</v>
+        <v>1076.305136781937</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.348366873657</v>
+        <v>868.4536365764043</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.588068108703</v>
+        <v>660.6933378114504</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G13" t="n">
-        <v>282.6486577846561</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H13" t="n">
-        <v>122.082237651916</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K13" t="n">
-        <v>57.98179126766719</v>
+        <v>57.9817912676671</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M13" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N13" t="n">
-        <v>334.9213634561169</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O13" t="n">
-        <v>410.6700291245815</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="T13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="U13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="V13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="W13" t="n">
-        <v>451.9654163614358</v>
+        <v>162.5482463244747</v>
       </c>
       <c r="X13" t="n">
-        <v>451.9654163614358</v>
+        <v>162.5482463244747</v>
       </c>
       <c r="Y13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1501.979067513905</v>
+        <v>604.2671648924991</v>
       </c>
       <c r="C14" t="n">
-        <v>1133.016550573493</v>
+        <v>604.2671648924991</v>
       </c>
       <c r="D14" t="n">
-        <v>1133.016550573493</v>
+        <v>604.2671648924991</v>
       </c>
       <c r="E14" t="n">
-        <v>747.2282979752486</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="F14" t="n">
-        <v>336.242393185641</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="G14" t="n">
-        <v>37.77157815156053</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="H14" t="n">
-        <v>37.77157815156053</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="I14" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434986</v>
       </c>
       <c r="K14" t="n">
         <v>300.9175062625695</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N14" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O14" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P14" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U14" t="n">
-        <v>1888.578907578026</v>
+        <v>1634.760593880703</v>
       </c>
       <c r="V14" t="n">
-        <v>1888.578907578026</v>
+        <v>1303.697706537132</v>
       </c>
       <c r="W14" t="n">
-        <v>1888.578907578026</v>
+        <v>994.4064968683108</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.578907578026</v>
+        <v>994.4064968683108</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888.578907578026</v>
+        <v>604.2671648924991</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>741.675644750123</v>
+        <v>492.4780007913823</v>
       </c>
       <c r="C15" t="n">
-        <v>567.222615468996</v>
+        <v>492.4780007913823</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2882058077447</v>
+        <v>343.5435911301311</v>
       </c>
       <c r="E15" t="n">
-        <v>259.0507508022892</v>
+        <v>184.3061361246755</v>
       </c>
       <c r="F15" t="n">
-        <v>251.1191700226026</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8309903954056</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H15" t="n">
-        <v>112.8309903954056</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I15" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J15" t="n">
-        <v>37.77157815156053</v>
+        <v>59.34209177902898</v>
       </c>
       <c r="K15" t="n">
-        <v>233.184322179535</v>
+        <v>59.34209177902898</v>
       </c>
       <c r="L15" t="n">
-        <v>557.3452682424039</v>
+        <v>383.5030378418978</v>
       </c>
       <c r="M15" t="n">
-        <v>813.7627938535194</v>
+        <v>813.7627938535186</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.117258716364</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O15" t="n">
-        <v>1623.091564367483</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P15" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q15" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R15" t="n">
-        <v>1814.892245700622</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="S15" t="n">
-        <v>1814.892245700622</v>
+        <v>1793.889098571927</v>
       </c>
       <c r="T15" t="n">
-        <v>1814.892245700622</v>
+        <v>1793.889098571927</v>
       </c>
       <c r="U15" t="n">
-        <v>1814.892245700622</v>
+        <v>1565.694601741881</v>
       </c>
       <c r="V15" t="n">
-        <v>1579.740137468879</v>
+        <v>1330.542493510139</v>
       </c>
       <c r="W15" t="n">
-        <v>1325.502780740678</v>
+        <v>1076.305136781937</v>
       </c>
       <c r="X15" t="n">
-        <v>1117.651280535145</v>
+        <v>868.4536365764043</v>
       </c>
       <c r="Y15" t="n">
-        <v>909.890981770191</v>
+        <v>660.6933378114504</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.9654163614358</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="C16" t="n">
-        <v>451.9654163614358</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="D16" t="n">
-        <v>332.574619231864</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="E16" t="n">
-        <v>184.6615256494709</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="F16" t="n">
-        <v>37.77157815156053</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="G16" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H16" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J16" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K16" t="n">
-        <v>57.98179126766718</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M16" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N16" t="n">
-        <v>334.9213634561169</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O16" t="n">
-        <v>410.6700291245815</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P16" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q16" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R16" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="T16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="U16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="V16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="W16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="X16" t="n">
-        <v>451.9654163614358</v>
+        <v>427.8809158718703</v>
       </c>
       <c r="Y16" t="n">
-        <v>451.9654163614358</v>
+        <v>207.0883367283403</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>552.9101424464001</v>
+        <v>1121.803194700352</v>
       </c>
       <c r="C17" t="n">
-        <v>552.9101424464001</v>
+        <v>752.8406777599407</v>
       </c>
       <c r="D17" t="n">
-        <v>552.9101424464001</v>
+        <v>394.5749791531902</v>
       </c>
       <c r="E17" t="n">
-        <v>552.9101424464001</v>
+        <v>394.5749791531902</v>
       </c>
       <c r="F17" t="n">
-        <v>552.9101424464001</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="G17" t="n">
-        <v>552.9101424464001</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H17" t="n">
-        <v>218.4789122942549</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I17" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559816</v>
       </c>
       <c r="M17" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N17" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O17" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P17" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R17" t="n">
-        <v>1789.163992490918</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S17" t="n">
-        <v>1789.163992490918</v>
+        <v>1696.299676851802</v>
       </c>
       <c r="T17" t="n">
-        <v>1789.163992490918</v>
+        <v>1474.571849970466</v>
       </c>
       <c r="U17" t="n">
-        <v>1644.038628115172</v>
+        <v>1474.571849970466</v>
       </c>
       <c r="V17" t="n">
-        <v>1312.975740771602</v>
+        <v>1474.571849970466</v>
       </c>
       <c r="W17" t="n">
-        <v>1312.975740771602</v>
+        <v>1121.803194700352</v>
       </c>
       <c r="X17" t="n">
-        <v>939.5099825105219</v>
+        <v>1121.803194700352</v>
       </c>
       <c r="Y17" t="n">
-        <v>939.5099825105219</v>
+        <v>1121.803194700352</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>914.3133188447902</v>
+        <v>554.9807253393947</v>
       </c>
       <c r="C18" t="n">
-        <v>739.8602895636632</v>
+        <v>380.5276960582677</v>
       </c>
       <c r="D18" t="n">
-        <v>590.9258799024119</v>
+        <v>380.5276960582677</v>
       </c>
       <c r="E18" t="n">
-        <v>431.6884248969563</v>
+        <v>380.5276960582677</v>
       </c>
       <c r="F18" t="n">
-        <v>285.1538669238413</v>
+        <v>233.9931380851527</v>
       </c>
       <c r="G18" t="n">
-        <v>146.8656872966443</v>
+        <v>95.70495845795563</v>
       </c>
       <c r="H18" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I18" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J18" t="n">
-        <v>37.77157815156053</v>
+        <v>78.02054839819857</v>
       </c>
       <c r="K18" t="n">
-        <v>233.184322179535</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L18" t="n">
-        <v>557.3452682424039</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M18" t="n">
-        <v>987.6050242540248</v>
+        <v>1027.853994500663</v>
       </c>
       <c r="N18" t="n">
-        <v>1444.959489116869</v>
+        <v>1146.343769973334</v>
       </c>
       <c r="O18" t="n">
-        <v>1796.933794767988</v>
+        <v>1498.318075624453</v>
       </c>
       <c r="P18" t="n">
-        <v>1888.578907578026</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q18" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R18" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S18" t="n">
-        <v>1753.635559691601</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T18" t="n">
-        <v>1753.635559691601</v>
+        <v>1688.176486099871</v>
       </c>
       <c r="U18" t="n">
-        <v>1525.441062861555</v>
+        <v>1459.981989269826</v>
       </c>
       <c r="V18" t="n">
-        <v>1290.288954629812</v>
+        <v>1224.829881038083</v>
       </c>
       <c r="W18" t="n">
-        <v>1290.288954629812</v>
+        <v>970.5925243098814</v>
       </c>
       <c r="X18" t="n">
-        <v>1290.288954629812</v>
+        <v>762.7410241043485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1082.528655864858</v>
+        <v>554.9807253393947</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C19" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D19" t="n">
-        <v>332.574619231864</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E19" t="n">
-        <v>184.6615256494709</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K19" t="n">
-        <v>57.98179126766719</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M19" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9213634561169</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O19" t="n">
-        <v>410.6700291245815</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P19" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q19" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R19" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S19" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="T19" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="U19" t="n">
-        <v>451.9654163614358</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="V19" t="n">
-        <v>451.9654163614358</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="W19" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X19" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y19" t="n">
-        <v>451.9654163614358</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>945.7071278414171</v>
+        <v>867.427895235648</v>
       </c>
       <c r="C20" t="n">
-        <v>576.7446109010053</v>
+        <v>867.427895235648</v>
       </c>
       <c r="D20" t="n">
-        <v>218.4789122942549</v>
+        <v>867.427895235648</v>
       </c>
       <c r="E20" t="n">
-        <v>218.4789122942549</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F20" t="n">
-        <v>218.4789122942549</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G20" t="n">
-        <v>218.4789122942549</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H20" t="n">
-        <v>218.4789122942549</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I20" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J20" t="n">
-        <v>94.76073252434998</v>
+        <v>94.76073252434981</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859927</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.836271911618</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O20" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P20" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q20" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R20" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S20" t="n">
-        <v>1752.316155763645</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T20" t="n">
-        <v>1530.588328882309</v>
+        <v>1838.908936340662</v>
       </c>
       <c r="U20" t="n">
-        <v>1276.770015184988</v>
+        <v>1585.09062264334</v>
       </c>
       <c r="V20" t="n">
-        <v>945.7071278414171</v>
+        <v>1254.02773529977</v>
       </c>
       <c r="W20" t="n">
-        <v>945.7071278414171</v>
+        <v>1254.02773529977</v>
       </c>
       <c r="X20" t="n">
-        <v>945.7071278414171</v>
+        <v>1254.02773529977</v>
       </c>
       <c r="Y20" t="n">
-        <v>945.7071278414171</v>
+        <v>1254.02773529977</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>741.6756447501232</v>
+        <v>197.009033157016</v>
       </c>
       <c r="C21" t="n">
-        <v>630.7661804185793</v>
+        <v>197.009033157016</v>
       </c>
       <c r="D21" t="n">
-        <v>481.8317707573281</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E21" t="n">
-        <v>322.5943157518726</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F21" t="n">
-        <v>176.0597577787576</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G21" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H21" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I21" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J21" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K21" t="n">
-        <v>37.77157815156053</v>
+        <v>59.34209177902875</v>
       </c>
       <c r="L21" t="n">
-        <v>361.9325242144295</v>
+        <v>383.5030378418975</v>
       </c>
       <c r="M21" t="n">
-        <v>792.1922802260503</v>
+        <v>813.7627938535184</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.546745088895</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O21" t="n">
-        <v>1601.521050740014</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P21" t="n">
-        <v>1867.008393950557</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q21" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.892245700622</v>
+        <v>1814.89224570062</v>
       </c>
       <c r="S21" t="n">
-        <v>1814.892245700622</v>
+        <v>1649.696852561131</v>
       </c>
       <c r="T21" t="n">
-        <v>1814.892245700622</v>
+        <v>1498.420130937561</v>
       </c>
       <c r="U21" t="n">
-        <v>1814.892245700622</v>
+        <v>1270.225634107515</v>
       </c>
       <c r="V21" t="n">
-        <v>1579.74013746888</v>
+        <v>1035.073525875772</v>
       </c>
       <c r="W21" t="n">
-        <v>1325.502780740678</v>
+        <v>780.8361691475708</v>
       </c>
       <c r="X21" t="n">
-        <v>1117.651280535145</v>
+        <v>572.984668942038</v>
       </c>
       <c r="Y21" t="n">
-        <v>909.8909817701913</v>
+        <v>365.224370177084</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K22" t="n">
-        <v>57.98179126766719</v>
+        <v>57.9817912676671</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M22" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N22" t="n">
-        <v>334.9213634561169</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O22" t="n">
-        <v>410.6700291245815</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P22" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q22" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R22" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S22" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="T22" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="U22" t="n">
-        <v>292.4560663574474</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="V22" t="n">
-        <v>37.77157815156053</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="W22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1362.448813819877</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C23" t="n">
-        <v>1362.448813819877</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D23" t="n">
-        <v>1004.183115213127</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>618.3948626148824</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U23" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>2512.65374412089</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W23" t="n">
-        <v>2512.65374412089</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X23" t="n">
-        <v>2139.18798585981</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y23" t="n">
-        <v>1749.048653883999</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>638.1631929376285</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>987.3573795552941</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="C26" t="n">
-        <v>618.3948626148824</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D26" t="n">
-        <v>618.3948626148824</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2490.330965126422</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2490.330965126422</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2137.562309856307</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>1764.096551595228</v>
+        <v>1690.455121249752</v>
       </c>
       <c r="Y26" t="n">
-        <v>1373.957219619416</v>
+        <v>1690.455121249752</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6323,31 +6323,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6423,13 +6423,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1289.354447327928</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C29" t="n">
-        <v>920.3919303875161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D29" t="n">
-        <v>920.3919303875161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E29" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2620.823367951181</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2402.188700923244</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2402.188700923244</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2402.188700923244</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2049.420045653129</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="X29" t="n">
-        <v>1675.95428739205</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y29" t="n">
-        <v>1675.95428739205</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="30">
@@ -6542,31 +6542,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2567.064746875</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="V31" t="n">
-        <v>2312.380258669114</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>766.9259543826058</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>766.9259543826058</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>766.9259543826058</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2523.661325315642</v>
+        <v>2528.523294711184</v>
       </c>
       <c r="U32" t="n">
-        <v>2269.899539953733</v>
+        <v>2274.761509349275</v>
       </c>
       <c r="V32" t="n">
-        <v>2269.899539953733</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="W32" t="n">
-        <v>1917.130884683619</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X32" t="n">
-        <v>1543.665126422539</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1153.525794446728</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2159.291999533505</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C34" t="n">
-        <v>2159.291999533505</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D34" t="n">
-        <v>2159.291999533505</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="E34" t="n">
-        <v>2159.291999533505</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="F34" t="n">
-        <v>2159.291999533505</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="G34" t="n">
-        <v>2159.291999533505</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981262</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>2159.291999533505</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7040,7 +7040,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073964</v>
@@ -7128,16 +7128,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y37" t="n">
         <v>53.94298182036445</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.9693282917576</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="C38" t="n">
-        <v>594.006811351346</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="D38" t="n">
-        <v>235.7411127445955</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="E38" t="n">
-        <v>235.7411127445955</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="F38" t="n">
-        <v>235.7411127445955</v>
+        <v>572.3103982575224</v>
       </c>
       <c r="G38" t="n">
-        <v>235.7411127445955</v>
+        <v>154.3465901557092</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>154.3465901557092</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.942913862885</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2465.942913862885</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>2113.174258592771</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X38" t="n">
-        <v>1739.708500331691</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y38" t="n">
-        <v>1349.569168355879</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981261</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632152</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>785.3587390101584</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>785.3587390101584</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036444</v>
+        <v>399.5704864119141</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>399.5704864119141</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2669.933035536898</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.933035536898</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2342.015910972395</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C43" t="n">
-        <v>2173.079728044488</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632152</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>2523.664375802635</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.875667274026</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.875667274026</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.875667274026</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E44" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2372.61483931396</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2372.61483931396</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>2372.61483931396</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X44" t="n">
-        <v>2372.61483931396</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y44" t="n">
-        <v>1982.475507338148</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669113</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.43550983875417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>177.7103348046296</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>102.2090306125188</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.43550983875417</v>
+        <v>107.2239074422577</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>67.07862688331154</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>290.1068512242368</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.04346072268805</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.43550983875417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>137.0548093029745</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>142.8645561141746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.04346072268805</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.43550983875417</v>
+        <v>85.43550983875423</v>
       </c>
       <c r="K21" t="n">
-        <v>67.07862688331144</v>
+        <v>88.86702448681483</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.8318583261925</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028821</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>18.70091076430211</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>168.1279498935992</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22831,13 +22831,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>51.53546512998963</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>17.12594209510155</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23102,16 +23102,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>195.9521592286173</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.75548455249168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>199.4890522659435</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
@@ -23317,13 +23317,13 @@
         <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>37.57496365547672</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
-        <v>149.6939835821963</v>
+        <v>42.28637369368434</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>60.93455184450626</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>67.38482253818417</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.39827731939933</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R13" t="n">
-        <v>160.7742744190616</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
         <v>217.6140207606494</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>95.05575186090975</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>118.9976012877954</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H14" t="n">
         <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
@@ -23551,19 +23551,19 @@
         <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>43.04267114527954</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>137.2169474214941</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.5434392080944</v>
+        <v>142.7503235506879</v>
       </c>
       <c r="T15" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>30.41858385993628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.623590991012</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>158.9607559314126</v>
@@ -23676,7 +23676,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>67.38482253818417</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939933</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R16" t="n">
-        <v>160.7742744190616</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
-        <v>217.6140207606494</v>
+        <v>193.7703652759801</v>
       </c>
       <c r="T16" t="n">
         <v>226.3758391310088</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>384.7275966007218</v>
       </c>
       <c r="G17" t="n">
         <v>414.4837081715351</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S17" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>107.6060198283598</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50.64912155030176</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140657</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S18" t="n">
-        <v>29.94952480053269</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>30.41858385993628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.623590991012</v>
@@ -23913,7 +23913,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>67.38482253818417</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939933</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R19" t="n">
-        <v>160.7742744190616</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S19" t="n">
         <v>217.6140207606494</v>
@@ -23946,13 +23946,13 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998088</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S20" t="n">
-        <v>55.45631412272289</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>170.3372770875332</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>62.90812930008732</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140657</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3983972633722</v>
+        <v>48.63444285603816</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>67.38482253818417</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939933</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R22" t="n">
-        <v>160.7742744190616</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S22" t="n">
         <v>217.6140207606494</v>
@@ -24183,13 +24183,13 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U22" t="n">
-        <v>128.3847334870453</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998088</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>16.57759194146348</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>319.5175778507476</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>163.0715099677104</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>100.9526254502184</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>355.7998678783328</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>98.85324697260045</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>115.6152529948203</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401879</v>
+        <v>207.6361542677488</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>99.17383488691496</v>
+        <v>49.5087820136898</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>48.01406787059324</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25125,7 +25125,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.3387865078526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>249.1186555911557</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>143.9426231493684</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>52.53174399286992</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,7 +25599,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>59.09000012742595</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>71.61294047516077</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.5345076483014</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>130.8549834249328</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>146.383578678728</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>156.3043432331573</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473915.1863847285</v>
+        <v>473915.1863847286</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644104.3155282777</v>
+        <v>644104.3155282774</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644104.3155282775</v>
+        <v>644104.3155282773</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644104.3155282777</v>
+        <v>644104.3155282772</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519929</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="D2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="D2" t="n">
-        <v>157852.6389047658</v>
-      </c>
       <c r="E2" t="n">
+        <v>220688.4257425817</v>
+      </c>
+      <c r="F2" t="n">
         <v>220688.4257425818</v>
-      </c>
-      <c r="F2" t="n">
-        <v>220688.4257425819</v>
       </c>
       <c r="G2" t="n">
         <v>220688.4257425818</v>
       </c>
       <c r="H2" t="n">
-        <v>220688.425742582</v>
+        <v>220688.4257425817</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.97951497</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>232690.6085665893</v>
+        <v>232690.608566589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.8879912179</v>
+        <v>184739.8879912182</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555051</v>
+        <v>57598.62967555042</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="C4" t="n">
         <v>50385.00392753458</v>
       </c>
-      <c r="C4" t="n">
-        <v>50385.00392753457</v>
-      </c>
       <c r="D4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="E4" t="n">
         <v>52087.30063868595</v>
@@ -26432,7 +26432,7 @@
         <v>52087.30063868595</v>
       </c>
       <c r="G4" t="n">
-        <v>52087.30063868596</v>
+        <v>52087.30063868594</v>
       </c>
       <c r="H4" t="n">
         <v>52087.30063868595</v>
@@ -26459,7 +26459,7 @@
         <v>53660.56571087037</v>
       </c>
       <c r="P4" t="n">
-        <v>53660.56571087036</v>
+        <v>53660.56571087037</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="F5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="G5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="H5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21583.06531807817</v>
+        <v>-33801.07593811866</v>
       </c>
       <c r="C6" t="n">
-        <v>59186.36621346951</v>
+        <v>46968.35559342906</v>
       </c>
       <c r="D6" t="n">
-        <v>59186.36621346954</v>
+        <v>46968.35559342901</v>
       </c>
       <c r="E6" t="n">
-        <v>-97237.27423088625</v>
+        <v>-106148.1381752519</v>
       </c>
       <c r="F6" t="n">
-        <v>135453.3343357031</v>
+        <v>126542.4703913371</v>
       </c>
       <c r="G6" t="n">
-        <v>135453.3343357031</v>
+        <v>126542.4703913371</v>
       </c>
       <c r="H6" t="n">
-        <v>135453.3343357032</v>
+        <v>126542.4703913371</v>
       </c>
       <c r="I6" t="n">
-        <v>-12936.95225052816</v>
+        <v>-19005.36599634751</v>
       </c>
       <c r="J6" t="n">
-        <v>108742.9931415837</v>
+        <v>102674.5793957644</v>
       </c>
       <c r="K6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948709</v>
       </c>
       <c r="L6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948707</v>
       </c>
       <c r="M6" t="n">
-        <v>114204.3060651393</v>
+        <v>108135.8923193204</v>
       </c>
       <c r="N6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948707</v>
       </c>
       <c r="O6" t="n">
-        <v>171802.9357406898</v>
+        <v>165734.5219948706</v>
       </c>
       <c r="P6" t="n">
-        <v>171802.9357406899</v>
+        <v>165734.5219948707</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="F3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="G3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="H3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,40 +26798,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945062</v>
       </c>
       <c r="F4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="G4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945062</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174.0101149965896</v>
+        <v>174.0101149965899</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1304380168476</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.142545860049</v>
+        <v>202.1425458600493</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168477</v>
+        <v>231.1304380168473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168476</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190293435999875</v>
+        <v>0.8190293435999862</v>
       </c>
       <c r="H11" t="n">
-        <v>8.387884265143374</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I11" t="n">
-        <v>31.57562876913855</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136949</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K11" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L11" t="n">
-        <v>129.2489731401551</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N11" t="n">
-        <v>146.1414533519049</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O11" t="n">
-        <v>137.9972303164825</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P11" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4459550286832</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491276</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S11" t="n">
-        <v>18.66363116728473</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585300951608947</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799898</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855974</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863533</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791252</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104755</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981798</v>
+        <v>95.14933352981785</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0347843251709</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N12" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O12" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68067232039623</v>
+        <v>83.68067232039611</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333346</v>
+        <v>55.93831336333338</v>
       </c>
       <c r="R12" t="n">
-        <v>27.2080388940128</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743438</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T12" t="n">
-        <v>1.766331431449403</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883021922931563</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467979</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026987</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J13" t="n">
-        <v>25.97435757848861</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68384850881887</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62063055659031</v>
+        <v>54.62063055659023</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441032</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210867</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148014</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556543</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.76376593229505</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R13" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322829</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T13" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02003936549709809</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190293435999875</v>
+        <v>0.8190293435999862</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143374</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57562876913855</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136949</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K14" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L14" t="n">
-        <v>129.2489731401551</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1414533519049</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164825</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P14" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4459550286832</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R14" t="n">
-        <v>51.44835200491276</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S14" t="n">
-        <v>18.66363116728473</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585300951608947</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799898</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855974</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863533</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791252</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104755</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981798</v>
+        <v>95.14933352981785</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0347843251709</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N15" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O15" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68067232039623</v>
+        <v>83.68067232039611</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333346</v>
+        <v>55.93831336333338</v>
       </c>
       <c r="R15" t="n">
-        <v>27.2080388940128</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743438</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T15" t="n">
-        <v>1.766331431449403</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02883021922931563</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3673883674467979</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026987</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J16" t="n">
-        <v>25.97435757848861</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K16" t="n">
-        <v>42.68384850881887</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659031</v>
+        <v>54.62063055659023</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441032</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22043990210867</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148014</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556543</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.76376593229505</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R16" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S16" t="n">
-        <v>6.402577276322829</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T16" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02003936549709809</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999875</v>
+        <v>0.8190293435999862</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143374</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57562876913855</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136949</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K17" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L17" t="n">
-        <v>129.2489731401551</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M17" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N17" t="n">
-        <v>146.1414533519049</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O17" t="n">
-        <v>137.9972303164825</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P17" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.4459550286832</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491276</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S17" t="n">
-        <v>18.66363116728473</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608947</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799898</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4382193322855974</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232276182863533</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40211682791252</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104755</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981798</v>
+        <v>95.14933352981785</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0347843251709</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N18" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O18" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P18" t="n">
-        <v>83.68067232039623</v>
+        <v>83.68067232039611</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333346</v>
+        <v>55.93831336333338</v>
       </c>
       <c r="R18" t="n">
-        <v>27.2080388940128</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743438</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T18" t="n">
-        <v>1.766331431449403</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02883021922931563</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3673883674467979</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H19" t="n">
-        <v>3.266416576026987</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J19" t="n">
-        <v>25.97435757848861</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68384850881887</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659031</v>
+        <v>54.62063055659023</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441032</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210867</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148014</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43395309556543</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.76376593229505</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R19" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322829</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T19" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02003936549709809</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999875</v>
+        <v>0.8190293435999862</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143374</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913855</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136949</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K20" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L20" t="n">
-        <v>129.2489731401551</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N20" t="n">
-        <v>146.1414533519049</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164825</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P20" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.4459550286832</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R20" t="n">
-        <v>51.44835200491276</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S20" t="n">
-        <v>18.66363116728473</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608947</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799898</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855974</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863533</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791252</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104755</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981798</v>
+        <v>95.14933352981785</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251709</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N21" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O21" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039623</v>
+        <v>83.68067232039611</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333346</v>
+        <v>55.93831336333338</v>
       </c>
       <c r="R21" t="n">
-        <v>27.2080388940128</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743438</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T21" t="n">
-        <v>1.766331431449403</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883021922931563</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3673883674467979</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026987</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848861</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K22" t="n">
-        <v>42.68384850881887</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659031</v>
+        <v>54.62063055659023</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441032</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210867</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148014</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556543</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.76376593229505</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R22" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322829</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T22" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02003936549709809</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675697</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K11" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L11" t="n">
-        <v>311.1437727206184</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M11" t="n">
-        <v>362.9816864949612</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N11" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O11" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P11" t="n">
-        <v>208.3431558125709</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.4552558141384</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>40.65552550165461</v>
       </c>
       <c r="K12" t="n">
-        <v>197.3866101292672</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L12" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M12" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N12" t="n">
-        <v>160.3421673932421</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O12" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P12" t="n">
-        <v>268.1690335460032</v>
+        <v>51.91529551858467</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41435668293602</v>
+        <v>20.41435668293596</v>
       </c>
       <c r="L13" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690637</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625091</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N13" t="n">
-        <v>100.3526122813373</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551982</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045892</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.56480239675697</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K14" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L14" t="n">
-        <v>311.1437727206184</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M14" t="n">
-        <v>362.9816864949612</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O14" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P14" t="n">
-        <v>208.3431558125709</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.4552558141384</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>21.78839760350351</v>
       </c>
       <c r="K15" t="n">
-        <v>197.3866101292672</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M15" t="n">
-        <v>259.0076016273894</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N15" t="n">
-        <v>461.974206932166</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O15" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>268.1690335460032</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293602</v>
+        <v>20.41435668293596</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690637</v>
       </c>
       <c r="M16" t="n">
-        <v>97.17367350625091</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N16" t="n">
-        <v>100.3526122813373</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O16" t="n">
-        <v>76.51380370551982</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P16" t="n">
-        <v>41.71251236045892</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675697</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K17" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L17" t="n">
-        <v>311.1437727206184</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M17" t="n">
-        <v>362.9816864949612</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N17" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O17" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P17" t="n">
-        <v>208.3431558125709</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.4552558141384</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>40.65552550165461</v>
       </c>
       <c r="K18" t="n">
-        <v>197.3866101292672</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L18" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M18" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N18" t="n">
-        <v>461.974206932166</v>
+        <v>119.6866418915869</v>
       </c>
       <c r="O18" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P18" t="n">
-        <v>92.5708210202406</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>126.033827013161</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293602</v>
+        <v>20.41435668293596</v>
       </c>
       <c r="L19" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690637</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625091</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N19" t="n">
-        <v>100.3526122813373</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551982</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045892</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.56480239675697</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K20" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L20" t="n">
-        <v>311.1437727206184</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M20" t="n">
-        <v>362.9816864949612</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N20" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O20" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P20" t="n">
-        <v>208.3431558125709</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.4552558141384</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.78839760350328</v>
       </c>
       <c r="L21" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N21" t="n">
-        <v>461.974206932166</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O21" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P21" t="n">
-        <v>268.1690335460032</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.78839760350442</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293602</v>
+        <v>20.41435668293596</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690637</v>
       </c>
       <c r="M22" t="n">
-        <v>97.17367350625091</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N22" t="n">
-        <v>100.3526122813373</v>
+        <v>100.3526122813372</v>
       </c>
       <c r="O22" t="n">
-        <v>76.51380370551982</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045892</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932188</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530446</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
